--- a/UnitTests/Grid.xlsx
+++ b/UnitTests/Grid.xlsx
@@ -34,7 +34,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -62,6 +62,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -93,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -101,6 +107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,7 +391,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -398,7 +405,7 @@
         <f t="shared" ref="B1:J10" si="0">CONCATENATE(TEXT(COLUMN() - 1, "0"), ", ",  TEXT(ABS(ROW() - 10), "0"))</f>
         <v>1, 9</v>
       </c>
-      <c r="C1" s="3" t="str">
+      <c r="C1" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2, 9</v>
       </c>
@@ -433,7 +440,7 @@
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
-        <f t="shared" ref="A2:J10" si="1">CONCATENATE(TEXT(COLUMN() - 1, "0"), ", ",  TEXT(ABS(ROW() - 10), "0"))</f>
+        <f t="shared" ref="A2:A10" si="1">CONCATENATE(TEXT(COLUMN() - 1, "0"), ", ",  TEXT(ABS(ROW() - 10), "0"))</f>
         <v>0, 8</v>
       </c>
       <c r="B2" s="1" t="str">
@@ -444,11 +451,11 @@
         <f t="shared" si="0"/>
         <v>2, 8</v>
       </c>
-      <c r="D2" s="3" t="str">
+      <c r="D2" s="7" t="str">
         <f t="shared" si="0"/>
         <v>3, 8</v>
       </c>
-      <c r="E2" s="3" t="str">
+      <c r="E2" s="7" t="str">
         <f t="shared" si="0"/>
         <v>4, 8</v>
       </c>
@@ -494,7 +501,7 @@
         <f t="shared" si="0"/>
         <v>4, 7</v>
       </c>
-      <c r="F3" s="3" t="str">
+      <c r="F3" s="7" t="str">
         <f t="shared" si="0"/>
         <v>5, 7</v>
       </c>
@@ -502,11 +509,11 @@
         <f t="shared" si="0"/>
         <v>6, 7</v>
       </c>
-      <c r="H3" s="3" t="str">
+      <c r="H3" s="7" t="str">
         <f t="shared" si="0"/>
         <v>7, 7</v>
       </c>
-      <c r="I3" s="3" t="str">
+      <c r="I3" s="7" t="str">
         <f t="shared" si="0"/>
         <v>8, 7</v>
       </c>
@@ -520,7 +527,7 @@
         <f>CONCATENATE("@", TEXT(COLUMN() - 1, "0"), ", ",  TEXT(ABS(ROW() - 10), "0"))</f>
         <v>@0, 6</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="7" t="str">
         <f t="shared" si="0"/>
         <v>1, 6</v>
       </c>
@@ -578,7 +585,7 @@
         <f t="shared" si="0"/>
         <v>4, 5</v>
       </c>
-      <c r="F5" s="3" t="str">
+      <c r="F5" s="7" t="str">
         <f t="shared" si="0"/>
         <v>5, 5</v>
       </c>
@@ -608,7 +615,7 @@
         <f t="shared" si="0"/>
         <v>1, 4</v>
       </c>
-      <c r="C6" s="3" t="str">
+      <c r="C6" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2, 4</v>
       </c>
@@ -620,7 +627,7 @@
         <f t="shared" si="0"/>
         <v>4, 4</v>
       </c>
-      <c r="F6" s="3" t="str">
+      <c r="F6" s="7" t="str">
         <f t="shared" si="0"/>
         <v>5, 4</v>
       </c>
@@ -670,7 +677,7 @@
         <f t="shared" si="0"/>
         <v>6, 3</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>7, 3</v>
       </c>
@@ -720,7 +727,7 @@
         <f t="shared" si="0"/>
         <v>8, 2</v>
       </c>
-      <c r="J8" s="3" t="str">
+      <c r="J8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>9, 2</v>
       </c>
@@ -796,7 +803,7 @@
         <f>CONCATENATE("*", TEXT(COLUMN() - 1, "0"), ", ",  TEXT(ABS(ROW() - 10), "0"))</f>
         <v>*6, 0</v>
       </c>
-      <c r="H10" s="3" t="str">
+      <c r="H10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>7, 0</v>
       </c>
